--- a/RegressionTests/Unit_Test_3/aptrans_601595_pass.xlsx
+++ b/RegressionTests/Unit_Test_3/aptrans_601595_pass.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>Medifix Employees - Irish Life 601703</t>
   </si>
@@ -116,22 +116,19 @@
     <t>ISSUES FOUND</t>
   </si>
   <si>
-    <t>refno</t>
-  </si>
-  <si>
-    <t>forename</t>
-  </si>
-  <si>
-    <t>surname</t>
-  </si>
-  <si>
-    <t>er</t>
-  </si>
-  <si>
-    <t>ee</t>
-  </si>
-  <si>
-    <t>avc</t>
+    <t>REFNO</t>
+  </si>
+  <si>
+    <t>FORENAME</t>
+  </si>
+  <si>
+    <t>SURNAME</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>EE</t>
   </si>
   <si>
     <t>853772</t>
@@ -153,12 +150,6 @@
   </si>
   <si>
     <t>853760</t>
-  </si>
-  <si>
-    <t>ER</t>
-  </si>
-  <si>
-    <t>EE</t>
   </si>
   <si>
     <t>NEG_ROWS</t>
@@ -1293,13 +1284,13 @@
         <v>34</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="29"/>
       <c r="B2" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>12</v>
@@ -1320,7 +1311,7 @@
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="29"/>
       <c r="B3" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>14</v>
@@ -1341,7 +1332,7 @@
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="29"/>
       <c r="B4" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>16</v>
@@ -1362,7 +1353,7 @@
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="29"/>
       <c r="B5" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>18</v>
@@ -1383,7 +1374,7 @@
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="29"/>
       <c r="B6" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>20</v>
@@ -1404,7 +1395,7 @@
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="29"/>
       <c r="B7" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>22</v>
@@ -1425,7 +1416,7 @@
     <row r="8" spans="1:7" ht="14.25">
       <c r="A8" s="29"/>
       <c r="B8" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>24</v>
@@ -1464,10 +1455,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" s="26" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>9</v>
@@ -1486,22 +1477,22 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="26" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1526,24 +1517,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/Unit_Test_3/aptrans_601595_pass.xlsx
+++ b/RegressionTests/Unit_Test_3/aptrans_601595_pass.xlsx
@@ -431,10 +431,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
     </border>
   </borders>
@@ -465,7 +465,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment/>
@@ -568,11 +568,14 @@
       <protection/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1430,7 +1433,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="26" t="s">
@@ -1453,7 +1456,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="26" t="s">
@@ -1476,7 +1479,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="26" t="s">
@@ -1499,7 +1502,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="26" t="s">
@@ -1522,7 +1525,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="26" t="s">
@@ -1545,7 +1548,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="26" t="s">
@@ -1638,31 +1641,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="31" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1774,16 +1777,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>80</v>
       </c>
     </row>
